--- a/app/RESULTS_FINAL.xlsx
+++ b/app/RESULTS_FINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Portal\Dev\Graph-Api-Aval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JadFost\Dev\Graph-GRUPOAVAL\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1CCB8-9E06-4996-A518-E4B88B23B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5FB94-CF36-4104-8DCD-88EB10AE85A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3825" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS_FINAL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>GROUP</t>
   </si>
@@ -79,40 +79,43 @@
     <t>20110411152023.0Z</t>
   </si>
   <si>
-    <t>Jared Foster Orduz</t>
-  </si>
-  <si>
-    <t>Jared</t>
-  </si>
-  <si>
-    <t>28dde8f9-07bb-4337-9311-453a97546dc2</t>
-  </si>
-  <si>
     <t>Ingeniero de Datos</t>
   </si>
   <si>
     <t>Colombia</t>
   </si>
   <si>
-    <t>ae634d13-e828-4fb2-acca-13759ba657c1</t>
-  </si>
-  <si>
     <t>Luis Alejandro Espinal Arango</t>
   </si>
   <si>
-    <t>e5ed3e7c-d731-4f01-8774-63d7dd6ab972</t>
-  </si>
-  <si>
-    <t>e5ed3e7c-d731-4f01-8774-63d7dd6ab973</t>
-  </si>
-  <si>
-    <t>jared.foster@vodac.co</t>
-  </si>
-  <si>
-    <t>luis.espinal@vodac.co</t>
-  </si>
-  <si>
     <t>Luis</t>
+  </si>
+  <si>
+    <t>JadFost</t>
+  </si>
+  <si>
+    <t>jadfosst_gmail.com#EXT#@myorduz.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>jadfosst@gmail.com</t>
+  </si>
+  <si>
+    <t>luis.espinal@datahub.co</t>
+  </si>
+  <si>
+    <t>luis.espinal@datahub.co#EXT#@vodac.com</t>
+  </si>
+  <si>
+    <t>Evely Garcia</t>
+  </si>
+  <si>
+    <t>evelygarci01@gmail.com#EXT#@onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>evelygarci01@gmail.com</t>
+  </si>
+  <si>
+    <t>Evely</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -143,6 +146,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF292827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,12 +175,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -507,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,26 +583,15 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -599,35 +601,30 @@
       </c>
       <c r="K2" s="1">
         <v>45225</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -640,13 +637,35 @@
       </c>
       <c r="L3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{309EFCC2-70AD-4863-BC18-2D29CC9BDC45}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EF228AA1-15A5-4CFB-A078-DFB3B960E45A}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{EF228AA1-15A5-4CFB-A078-DFB3B960E45A}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{5EDBAAE6-3AAF-4411-A35D-1870A34E8F5C}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{4A3E3D63-5645-4E57-A960-0611EC71893E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>